--- a/nr-rm-jdv-148/ig/StructureDefinition-mesures-fr-observation-oxygen-sat.xlsx
+++ b/nr-rm-jdv-148/ig/StructureDefinition-mesures-fr-observation-oxygen-sat.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T14:22:16+00:00</t>
+    <t>2024-12-18T14:23:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,10 +657,6 @@
   </si>
   <si>
     <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Observation.extension:MesMomentOfMeasurement</t>
@@ -1786,6 +1782,10 @@
   </si>
   <si>
     <t>Observation.method.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Observation.method.coding</t>
@@ -4823,7 +4823,7 @@
         <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>122</v>
@@ -4849,13 +4849,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>197</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>82</v>
@@ -4877,13 +4877,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4969,10 +4969,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4998,16 +4998,16 @@
         <v>114</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>117</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -5056,7 +5056,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -5091,10 +5091,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5117,17 +5117,17 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -5176,7 +5176,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5191,19 +5191,19 @@
         <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -5211,14 +5211,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5237,17 +5237,17 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -5296,7 +5296,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5311,16 +5311,16 @@
         <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5331,14 +5331,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -5357,16 +5357,16 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5416,7 +5416,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5431,16 +5431,16 @@
         <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5451,10 +5451,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5569,10 +5569,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5689,10 +5689,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5718,13 +5718,13 @@
         <v>107</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5774,16 +5774,16 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI27" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>105</v>
@@ -5809,10 +5809,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5838,13 +5838,13 @@
         <v>135</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5873,28 +5873,28 @@
         <v>155</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AA28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5929,10 +5929,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5955,16 +5955,16 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -6014,7 +6014,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -6038,7 +6038,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -6049,10 +6049,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6078,13 +6078,13 @@
         <v>107</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6134,7 +6134,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6169,10 +6169,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6198,16 +6198,16 @@
         <v>173</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6232,11 +6232,11 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -6254,7 +6254,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>93</v>
@@ -6269,19 +6269,19 @@
         <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -6289,10 +6289,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6315,19 +6315,19 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -6355,16 +6355,16 @@
         <v>177</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Z32" t="s" s="2">
+      <c r="AA32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB32" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
@@ -6374,7 +6374,7 @@
         <v>120</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6398,10 +6398,10 @@
         <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -6409,13 +6409,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C33" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>82</v>
@@ -6437,19 +6437,19 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6477,11 +6477,11 @@
         <v>177</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Z33" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="AA33" t="s" s="2">
         <v>82</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6522,10 +6522,10 @@
         <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6533,10 +6533,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6651,10 +6651,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6771,10 +6771,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6800,16 +6800,16 @@
         <v>151</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6858,7 +6858,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6879,10 +6879,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6893,10 +6893,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7011,10 +7011,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7131,10 +7131,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7160,65 +7160,65 @@
         <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7239,10 +7239,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7253,10 +7253,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7282,13 +7282,13 @@
         <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7338,7 +7338,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7359,10 +7359,10 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7373,10 +7373,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7402,63 +7402,63 @@
         <v>173</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7479,10 +7479,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7493,10 +7493,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7522,14 +7522,14 @@
         <v>107</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7539,7 +7539,7 @@
         <v>82</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>82</v>
@@ -7578,7 +7578,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7599,10 +7599,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7613,10 +7613,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7639,19 +7639,19 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7700,7 +7700,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7721,10 +7721,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7735,10 +7735,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7764,16 +7764,16 @@
         <v>107</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7822,7 +7822,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7843,10 +7843,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7857,14 +7857,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7883,19 +7883,19 @@
         <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7923,11 +7923,11 @@
         <v>155</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z45" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="AA45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>93</v>
@@ -7959,30 +7959,30 @@
         <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AO45" t="s" s="2">
+      <c r="AP45" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>378</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8097,10 +8097,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8217,10 +8217,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8246,16 +8246,16 @@
         <v>151</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -8292,7 +8292,7 @@
         <v>82</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
@@ -8302,7 +8302,7 @@
         <v>120</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8323,10 +8323,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8337,13 +8337,13 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C49" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>82</v>
@@ -8368,16 +8368,16 @@
         <v>151</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8426,7 +8426,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8447,10 +8447,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8461,10 +8461,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8579,10 +8579,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8699,10 +8699,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8728,23 +8728,23 @@
         <v>135</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>82</v>
@@ -8786,7 +8786,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8807,10 +8807,10 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8821,10 +8821,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8850,13 +8850,13 @@
         <v>107</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8906,7 +8906,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8927,10 +8927,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8941,10 +8941,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8970,21 +8970,21 @@
         <v>173</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>82</v>
@@ -9026,7 +9026,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -9047,10 +9047,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -9061,10 +9061,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9090,14 +9090,14 @@
         <v>107</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9146,7 +9146,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9167,10 +9167,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9181,10 +9181,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9207,19 +9207,19 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -9268,7 +9268,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9289,10 +9289,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -9303,10 +9303,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9332,16 +9332,16 @@
         <v>107</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9390,7 +9390,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9411,10 +9411,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9425,10 +9425,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9451,19 +9451,19 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9512,7 +9512,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9527,19 +9527,19 @@
         <v>105</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AL58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>82</v>
@@ -9547,10 +9547,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9573,16 +9573,16 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9632,7 +9632,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9653,13 +9653,13 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>82</v>
@@ -9667,14 +9667,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9693,19 +9693,19 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9754,7 +9754,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9769,19 +9769,19 @@
         <v>105</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AL60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>82</v>
@@ -9789,14 +9789,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9815,19 +9815,19 @@
         <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9876,7 +9876,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9885,25 +9885,25 @@
         <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AJ61" t="s" s="2">
+      <c r="AK61" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AL61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>82</v>
@@ -9911,10 +9911,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9940,13 +9940,13 @@
         <v>129</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9996,7 +9996,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -10017,13 +10017,13 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>82</v>
@@ -10031,10 +10031,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10057,17 +10057,17 @@
         <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -10116,7 +10116,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10131,19 +10131,19 @@
         <v>105</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AL63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>82</v>
@@ -10151,10 +10151,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10177,19 +10177,19 @@
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -10226,26 +10226,26 @@
         <v>82</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI64" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>105</v>
@@ -10254,30 +10254,30 @@
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>469</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C65" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>82</v>
@@ -10299,19 +10299,19 @@
         <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10360,7 +10360,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10369,7 +10369,7 @@
         <v>93</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>105</v>
@@ -10378,27 +10378,27 @@
         <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AO65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP65" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>469</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10513,10 +10513,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10633,10 +10633,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10659,19 +10659,19 @@
         <v>94</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10720,7 +10720,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10741,10 +10741,10 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10755,10 +10755,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10784,65 +10784,65 @@
         <v>173</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q69" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="P69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q69" t="s" s="2">
+      <c r="R69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="R69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="Y69" t="s" s="2">
+      <c r="Z69" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="Z69" t="s" s="2">
+      <c r="AA69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF69" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10863,10 +10863,10 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10877,10 +10877,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10906,14 +10906,14 @@
         <v>107</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10962,7 +10962,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10983,10 +10983,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10997,10 +10997,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11026,72 +11026,72 @@
         <v>135</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF71" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="S71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF71" t="s" s="2">
+      <c r="AG71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI71" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>105</v>
@@ -11103,10 +11103,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -11117,10 +11117,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B72" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11146,65 +11146,65 @@
         <v>173</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF72" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11225,10 +11225,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11239,10 +11239,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11265,19 +11265,19 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11305,37 +11305,37 @@
         <v>155</v>
       </c>
       <c r="Y73" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Z73" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="Z73" t="s" s="2">
+      <c r="AA73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI73" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>105</v>
@@ -11350,7 +11350,7 @@
         <v>196</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11361,14 +11361,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11387,19 +11387,19 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11427,11 +11427,11 @@
         <v>155</v>
       </c>
       <c r="Y74" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="Z74" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="Z74" t="s" s="2">
-        <v>538</v>
-      </c>
       <c r="AA74" t="s" s="2">
         <v>82</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11466,27 +11466,27 @@
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AN74" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AN74" t="s" s="2">
+      <c r="AO74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP74" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>542</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11509,19 +11509,19 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11570,7 +11570,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11591,10 +11591,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11605,10 +11605,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11631,16 +11631,16 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11688,7 +11688,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11706,27 +11706,27 @@
         <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="AM76" t="s" s="2">
+      <c r="AN76" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="AN76" t="s" s="2">
+      <c r="AO76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP76" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>559</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11749,19 +11749,19 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11786,11 +11786,11 @@
         <v>82</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>82</v>
@@ -11808,7 +11808,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11829,10 +11829,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11843,10 +11843,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11961,10 +11961,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12055,7 +12055,7 @@
         <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>206</v>
+        <v>569</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>122</v>
@@ -12110,16 +12110,16 @@
         <v>151</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12168,7 +12168,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12177,7 +12177,7 @@
         <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>206</v>
+        <v>569</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>105</v>
@@ -12189,10 +12189,10 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12415,7 +12415,7 @@
         <v>81</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>206</v>
+        <v>569</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>122</v>
@@ -12470,16 +12470,16 @@
         <v>135</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="N83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12528,7 +12528,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12537,7 +12537,7 @@
         <v>93</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>206</v>
+        <v>569</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>105</v>
@@ -12549,10 +12549,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12592,13 +12592,13 @@
         <v>107</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12648,7 +12648,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12657,7 +12657,7 @@
         <v>93</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>206</v>
+        <v>569</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>105</v>
@@ -12669,10 +12669,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12712,16 +12712,16 @@
         <v>173</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>576</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12770,7 +12770,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12779,7 +12779,7 @@
         <v>93</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>206</v>
+        <v>569</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>105</v>
@@ -12791,10 +12791,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12834,16 +12834,16 @@
         <v>107</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>576</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12892,7 +12892,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12901,7 +12901,7 @@
         <v>93</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>206</v>
+        <v>569</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>105</v>
@@ -12913,10 +12913,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12953,19 +12953,19 @@
         <v>94</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="N87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -13014,7 +13014,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -13023,7 +13023,7 @@
         <v>93</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>206</v>
+        <v>569</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>105</v>
@@ -13035,10 +13035,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -13078,16 +13078,16 @@
         <v>107</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="N88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13136,7 +13136,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13145,7 +13145,7 @@
         <v>93</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>206</v>
+        <v>569</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>105</v>
@@ -13157,10 +13157,10 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -13809,7 +13809,7 @@
         <v>117</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -14155,7 +14155,7 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>626</v>
@@ -14240,7 +14240,7 @@
         <v>633</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14277,7 +14277,7 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L98" t="s" s="2">
         <v>635</v>
@@ -14362,7 +14362,7 @@
         <v>633</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -15249,7 +15249,7 @@
         <v>117</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15359,7 +15359,7 @@
         <v>94</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L107" t="s" s="2">
         <v>675</v>
@@ -15399,10 +15399,10 @@
         <v>155</v>
       </c>
       <c r="Y107" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z107" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -15441,13 +15441,13 @@
         <v>679</v>
       </c>
       <c r="AM107" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN107" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AN107" t="s" s="2">
+      <c r="AO107" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AP107" t="s" s="2">
         <v>82</v>
@@ -15493,7 +15493,7 @@
         <v>684</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15518,7 +15518,7 @@
         <v>82</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>274</v>
+        <v>155</v>
       </c>
       <c r="Y108" t="s" s="2">
         <v>685</v>
@@ -15563,16 +15563,16 @@
         <v>688</v>
       </c>
       <c r="AM108" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AN108" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AN108" t="s" s="2">
+      <c r="AO108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP108" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AO108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP108" t="s" s="2">
-        <v>469</v>
       </c>
     </row>
     <row r="109" hidden="true">
@@ -15603,7 +15603,7 @@
         <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L109" t="s" s="2">
         <v>690</v>
@@ -15615,7 +15615,7 @@
         <v>692</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15643,10 +15643,10 @@
         <v>155</v>
       </c>
       <c r="Y109" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Z109" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>82</v>
@@ -15688,7 +15688,7 @@
         <v>196</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15706,7 +15706,7 @@
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15725,19 +15725,19 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15765,10 +15765,10 @@
         <v>155</v>
       </c>
       <c r="Y110" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="Z110" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>82</v>
@@ -15804,19 +15804,19 @@
         <v>82</v>
       </c>
       <c r="AL110" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AM110" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="AM110" t="s" s="2">
+      <c r="AN110" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AN110" t="s" s="2">
+      <c r="AO110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP110" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="AO110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP110" t="s" s="2">
-        <v>542</v>
       </c>
     </row>
     <row r="111" hidden="true">
